--- a/docs/Expl классы.xlsx
+++ b/docs/Expl классы.xlsx
@@ -5,21 +5,23 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KulshaVI\Projects\Expl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KulshaVI\Projects\Expl\http\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="453" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="453" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="классы" sheetId="1" r:id="rId1"/>
-    <sheet name="общество" sheetId="5" r:id="rId2"/>
-    <sheet name="object" sheetId="2" r:id="rId3"/>
-    <sheet name="link" sheetId="3" r:id="rId4"/>
+    <sheet name="object" sheetId="2" r:id="rId2"/>
+    <sheet name="link" sheetId="3" r:id="rId3"/>
+    <sheet name="общество" sheetId="5" r:id="rId4"/>
+    <sheet name="Деятельность" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">link!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">object!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">link!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">object!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Деятельность!$A$1:$C$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">классы!$A$1:$F$52</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="292">
   <si>
     <t>Земельные участки</t>
   </si>
@@ -797,13 +799,124 @@
   </si>
   <si>
     <t>всех государств</t>
+  </si>
+  <si>
+    <t>энергетика</t>
+  </si>
+  <si>
+    <t>разрешение на перемещение</t>
+  </si>
+  <si>
+    <t>аренда</t>
+  </si>
+  <si>
+    <t>временное разрешение на перемещение/использование</t>
+  </si>
+  <si>
+    <t>строительство</t>
+  </si>
+  <si>
+    <t>создание, перемещение</t>
+  </si>
+  <si>
+    <t>учет</t>
+  </si>
+  <si>
+    <t>контроль, сбор истории</t>
+  </si>
+  <si>
+    <t>контроль</t>
+  </si>
+  <si>
+    <t>разрешение на перемещение, контроль перемещения</t>
+  </si>
+  <si>
+    <t>класс деятельности</t>
+  </si>
+  <si>
+    <t>логистика</t>
+  </si>
+  <si>
+    <t>транспортировка грузов и информации</t>
+  </si>
+  <si>
+    <t>суд</t>
+  </si>
+  <si>
+    <t>управление</t>
+  </si>
+  <si>
+    <t>контроль за перемещением, контроль за разрешениями, выдача разрешений</t>
+  </si>
+  <si>
+    <t>разрешение на перемещение, контроль перемещения, выдача разрешений</t>
+  </si>
+  <si>
+    <t>согласующие органы</t>
+  </si>
+  <si>
+    <t>создание и транспортировка ресурсов</t>
+  </si>
+  <si>
+    <t>действие</t>
+  </si>
+  <si>
+    <t>объект деятельности</t>
+  </si>
+  <si>
+    <t>описание объекта деятельности</t>
+  </si>
+  <si>
+    <t>отдых и развлечение</t>
+  </si>
+  <si>
+    <t>отдых</t>
+  </si>
+  <si>
+    <t>производство</t>
+  </si>
+  <si>
+    <t>производство, создание, объединение объектов</t>
+  </si>
+  <si>
+    <t>информация о прошлом состоянии (положении) объекта</t>
+  </si>
+  <si>
+    <t>информация о будущем состоянии (положении) объекта</t>
+  </si>
+  <si>
+    <t>история действий</t>
+  </si>
+  <si>
+    <t>план действий</t>
+  </si>
+  <si>
+    <t>правило</t>
+  </si>
+  <si>
+    <t>система сравнивает состояние (положение) объекта с правилом (состоянием другого объекта)</t>
+  </si>
+  <si>
+    <t>система инициирует изменение состояния (положения) объекта согласно правилу</t>
+  </si>
+  <si>
+    <t>система собирает данные об изменении состояния (положения) объекта после изменеия состояния</t>
+  </si>
+  <si>
+    <t>сравнение</t>
+  </si>
+  <si>
+    <t>изменение</t>
+  </si>
+  <si>
+    <t>получение</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -829,8 +942,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -882,6 +1004,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,7 +1196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1235,6 +1369,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2755,9 +2898,1431 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.42578125" style="9" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6">
+        <v>11</v>
+      </c>
+      <c r="C62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6">
+        <v>14</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6">
+        <v>15</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6">
+        <v>16</v>
+      </c>
+      <c r="C67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6">
+        <v>17</v>
+      </c>
+      <c r="C68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6">
+        <v>18</v>
+      </c>
+      <c r="C69">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6">
+        <v>19</v>
+      </c>
+      <c r="C70">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6">
+        <v>21</v>
+      </c>
+      <c r="C72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6">
+        <v>22</v>
+      </c>
+      <c r="C73">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6">
+        <v>23</v>
+      </c>
+      <c r="C74">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6">
+        <v>24</v>
+      </c>
+      <c r="C75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6">
+        <v>26</v>
+      </c>
+      <c r="C77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6">
+        <v>27</v>
+      </c>
+      <c r="C78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6">
+        <v>28</v>
+      </c>
+      <c r="C79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6">
+        <v>29</v>
+      </c>
+      <c r="C80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6">
+        <v>30</v>
+      </c>
+      <c r="C81">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="6">
+        <v>31</v>
+      </c>
+      <c r="C82">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6">
+        <v>32</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="6">
+        <v>33</v>
+      </c>
+      <c r="C84">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="6">
+        <v>34</v>
+      </c>
+      <c r="C85">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="6">
+        <v>35</v>
+      </c>
+      <c r="C86">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="6">
+        <v>36</v>
+      </c>
+      <c r="C87">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="6">
+        <v>37</v>
+      </c>
+      <c r="C88">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="6">
+        <v>38</v>
+      </c>
+      <c r="C89">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="6">
+        <v>39</v>
+      </c>
+      <c r="C90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="6">
+        <v>40</v>
+      </c>
+      <c r="C91">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="6">
+        <v>41</v>
+      </c>
+      <c r="C92">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="6">
+        <v>42</v>
+      </c>
+      <c r="C93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="6">
+        <v>43</v>
+      </c>
+      <c r="C94">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="6">
+        <v>44</v>
+      </c>
+      <c r="C95">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="6">
+        <v>45</v>
+      </c>
+      <c r="C96">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="6">
+        <v>46</v>
+      </c>
+      <c r="C97">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="6">
+        <v>47</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="6">
+        <v>48</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="6">
+        <v>49</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="6">
+        <v>50</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="6">
+        <v>51</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3537,1424 +5102,222 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.42578125" style="9" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>32</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>33</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>34</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>35</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>36</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>37</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>38</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>39</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>40</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>41</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>42</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
-        <v>43</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
-        <v>44</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
-        <v>45</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>46</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>47</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <v>48</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="6">
-        <v>49</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="6">
-        <v>50</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
-        <v>51</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C102"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" t="s">
-        <v>92</v>
+      <c r="A1" s="68" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
+      <c r="A2" s="64" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2</v>
+      <c r="A3" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>3</v>
+      <c r="A4" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6">
-        <v>4</v>
+      <c r="A5" s="66" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6">
-        <v>5</v>
+      <c r="A6" s="66" t="s">
+        <v>284</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="67" t="str">
+        <f>A4</f>
+        <v>действие</v>
+      </c>
+      <c r="C7" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="65" t="str">
+        <f>A3</f>
+        <v>правило</v>
+      </c>
+      <c r="C8" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="65" t="str">
+        <f>A3</f>
+        <v>правило</v>
+      </c>
+      <c r="C9" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B10" s="67" t="str">
+        <f>A4</f>
+        <v>действие</v>
+      </c>
+      <c r="C10" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="64" t="str">
+        <f>A2</f>
+        <v>контроль</v>
+      </c>
+      <c r="C11" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="67" t="str">
+        <f>A4</f>
+        <v>действие</v>
+      </c>
+      <c r="C12" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>268</v>
+      </c>
+      <c r="B13" s="65" t="str">
+        <f>A3</f>
+        <v>правило</v>
+      </c>
+      <c r="C13" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B14" s="65" t="str">
+        <f>A3</f>
+        <v>правило</v>
+      </c>
+      <c r="C14" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" s="65" t="str">
+        <f>A3</f>
+        <v>правило</v>
+      </c>
+      <c r="C15" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="6">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" s="6">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" s="6">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" s="6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" s="6">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" s="6">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" s="6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" s="6">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" s="6">
-        <v>2</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" s="6">
-        <v>3</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" s="6">
-        <v>4</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" s="6">
-        <v>5</v>
-      </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" s="6">
-        <v>6</v>
-      </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" s="6">
-        <v>7</v>
-      </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" s="6">
-        <v>8</v>
-      </c>
-      <c r="C59">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" s="6">
-        <v>9</v>
-      </c>
-      <c r="C60">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" s="6">
-        <v>10</v>
-      </c>
-      <c r="C61">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" s="6">
-        <v>11</v>
-      </c>
-      <c r="C62">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" s="6">
-        <v>12</v>
-      </c>
-      <c r="C63">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" s="6">
-        <v>13</v>
-      </c>
-      <c r="C64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" s="6">
-        <v>14</v>
-      </c>
-      <c r="C65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" s="6">
-        <v>15</v>
-      </c>
-      <c r="C66">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" s="6">
-        <v>16</v>
-      </c>
-      <c r="C67">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" s="6">
-        <v>17</v>
-      </c>
-      <c r="C68">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" s="6">
-        <v>18</v>
-      </c>
-      <c r="C69">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" s="6">
-        <v>19</v>
-      </c>
-      <c r="C70">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" s="6">
-        <v>20</v>
-      </c>
-      <c r="C71">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" s="6">
-        <v>21</v>
-      </c>
-      <c r="C72">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" s="6">
-        <v>22</v>
-      </c>
-      <c r="C73">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" s="6">
-        <v>23</v>
-      </c>
-      <c r="C74">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" s="6">
-        <v>24</v>
-      </c>
-      <c r="C75">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" s="6">
-        <v>25</v>
-      </c>
-      <c r="C76">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" s="6">
-        <v>26</v>
-      </c>
-      <c r="C77">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" s="6">
-        <v>27</v>
-      </c>
-      <c r="C78">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" s="6">
-        <v>28</v>
-      </c>
-      <c r="C79">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" s="6">
-        <v>29</v>
-      </c>
-      <c r="C80">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" s="6">
-        <v>30</v>
-      </c>
-      <c r="C81">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" s="6">
-        <v>31</v>
-      </c>
-      <c r="C82">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" s="6">
-        <v>32</v>
-      </c>
-      <c r="C83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" s="6">
-        <v>33</v>
-      </c>
-      <c r="C84">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" s="6">
-        <v>34</v>
-      </c>
-      <c r="C85">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" s="6">
-        <v>35</v>
-      </c>
-      <c r="C86">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" s="6">
-        <v>36</v>
-      </c>
-      <c r="C87">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" s="6">
-        <v>37</v>
-      </c>
-      <c r="C88">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" s="6">
-        <v>38</v>
-      </c>
-      <c r="C89">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" s="6">
-        <v>39</v>
-      </c>
-      <c r="C90">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" s="6">
-        <v>40</v>
-      </c>
-      <c r="C91">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" s="6">
-        <v>41</v>
-      </c>
-      <c r="C92">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" s="6">
-        <v>42</v>
-      </c>
-      <c r="C93">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" s="6">
-        <v>43</v>
-      </c>
-      <c r="C94">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" s="6">
-        <v>44</v>
-      </c>
-      <c r="C95">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" s="6">
-        <v>45</v>
-      </c>
-      <c r="C96">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" s="6">
-        <v>46</v>
-      </c>
-      <c r="C97">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" s="6">
-        <v>47</v>
-      </c>
-      <c r="C98">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" s="6">
-        <v>48</v>
-      </c>
-      <c r="C99">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" s="6">
-        <v>49</v>
-      </c>
-      <c r="C100">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" s="6">
-        <v>50</v>
-      </c>
-      <c r="C101">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" s="6">
-        <v>51</v>
-      </c>
-      <c r="C102">
-        <v>6</v>
+      <c r="A16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="67" t="str">
+        <f>A4</f>
+        <v>действие</v>
+      </c>
+      <c r="C16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B17" s="67" t="str">
+        <f>A4</f>
+        <v>действие</v>
+      </c>
+      <c r="C17" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
+  <autoFilter ref="A1:C17"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Expl классы.xlsx
+++ b/docs/Expl классы.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="453" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735" tabRatio="453" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="классы" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="link" sheetId="3" r:id="rId3"/>
     <sheet name="общество" sheetId="5" r:id="rId4"/>
     <sheet name="Деятельность" sheetId="6" r:id="rId5"/>
+    <sheet name="формы документов" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">link!$A$1:$C$1</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="391">
   <si>
     <t>Земельные участки</t>
   </si>
@@ -910,13 +911,310 @@
   </si>
   <si>
     <t>получение</t>
+  </si>
+  <si>
+    <t>счет</t>
+  </si>
+  <si>
+    <t>счет-фактура</t>
+  </si>
+  <si>
+    <t>накладная</t>
+  </si>
+  <si>
+    <t>акт</t>
+  </si>
+  <si>
+    <t>доверенность</t>
+  </si>
+  <si>
+    <t>ценник</t>
+  </si>
+  <si>
+    <t>товарный чек</t>
+  </si>
+  <si>
+    <t>поручение</t>
+  </si>
+  <si>
+    <t>отчет</t>
+  </si>
+  <si>
+    <t>ведомость</t>
+  </si>
+  <si>
+    <t>приказ</t>
+  </si>
+  <si>
+    <t>указ</t>
+  </si>
+  <si>
+    <t>договор</t>
+  </si>
+  <si>
+    <t>заявление</t>
+  </si>
+  <si>
+    <t>удостоверение</t>
+  </si>
+  <si>
+    <t>свидетельство</t>
+  </si>
+  <si>
+    <t>ордер</t>
+  </si>
+  <si>
+    <t>объявление</t>
+  </si>
+  <si>
+    <t>уведомление</t>
+  </si>
+  <si>
+    <t>требование</t>
+  </si>
+  <si>
+    <t>квитанция</t>
+  </si>
+  <si>
+    <t>форма</t>
+  </si>
+  <si>
+    <t>декларация</t>
+  </si>
+  <si>
+    <t>факсимиле</t>
+  </si>
+  <si>
+    <t>перевод</t>
+  </si>
+  <si>
+    <t>резюме</t>
+  </si>
+  <si>
+    <t>паспорт</t>
+  </si>
+  <si>
+    <t>опись</t>
+  </si>
+  <si>
+    <t>справка</t>
+  </si>
+  <si>
+    <t>письмо</t>
+  </si>
+  <si>
+    <t>положение</t>
+  </si>
+  <si>
+    <t>протокол</t>
+  </si>
+  <si>
+    <t>распоряжение</t>
+  </si>
+  <si>
+    <t>устав</t>
+  </si>
+  <si>
+    <t>решение</t>
+  </si>
+  <si>
+    <t>заявка</t>
+  </si>
+  <si>
+    <t>постановление</t>
+  </si>
+  <si>
+    <t>закон</t>
+  </si>
+  <si>
+    <t>инструкция</t>
+  </si>
+  <si>
+    <t>правила</t>
+  </si>
+  <si>
+    <t>структура</t>
+  </si>
+  <si>
+    <t>контракт</t>
+  </si>
+  <si>
+    <t>представление</t>
+  </si>
+  <si>
+    <t>график</t>
+  </si>
+  <si>
+    <t>доклад</t>
+  </si>
+  <si>
+    <t>записка</t>
+  </si>
+  <si>
+    <t>карточка</t>
+  </si>
+  <si>
+    <t>табель</t>
+  </si>
+  <si>
+    <t>журнал</t>
+  </si>
+  <si>
+    <t>книга</t>
+  </si>
+  <si>
+    <t>ярлык</t>
+  </si>
+  <si>
+    <t>реестр</t>
+  </si>
+  <si>
+    <t>талон</t>
+  </si>
+  <si>
+    <t>выписка</t>
+  </si>
+  <si>
+    <t>документация</t>
+  </si>
+  <si>
+    <t>путевка</t>
+  </si>
+  <si>
+    <t>лист</t>
+  </si>
+  <si>
+    <t>дневник</t>
+  </si>
+  <si>
+    <t>расчет</t>
+  </si>
+  <si>
+    <t>рапорт</t>
+  </si>
+  <si>
+    <t>дубликат</t>
+  </si>
+  <si>
+    <t>книжка</t>
+  </si>
+  <si>
+    <t>авизо</t>
+  </si>
+  <si>
+    <t>аккредитив</t>
+  </si>
+  <si>
+    <t>извещение</t>
+  </si>
+  <si>
+    <t>подтверждение</t>
+  </si>
+  <si>
+    <t>запрос</t>
+  </si>
+  <si>
+    <t>образец</t>
+  </si>
+  <si>
+    <t>спецификация</t>
+  </si>
+  <si>
+    <t>текст</t>
+  </si>
+  <si>
+    <t>перечень</t>
+  </si>
+  <si>
+    <t>табуляграмма</t>
+  </si>
+  <si>
+    <t>календарь</t>
+  </si>
+  <si>
+    <t>динамика</t>
+  </si>
+  <si>
+    <t>информация</t>
+  </si>
+  <si>
+    <t>сведения</t>
+  </si>
+  <si>
+    <t>список</t>
+  </si>
+  <si>
+    <t>баланс</t>
+  </si>
+  <si>
+    <t>расшифровка</t>
+  </si>
+  <si>
+    <t>данные</t>
+  </si>
+  <si>
+    <t>смета</t>
+  </si>
+  <si>
+    <t>таблица</t>
+  </si>
+  <si>
+    <t>меню</t>
+  </si>
+  <si>
+    <t>показатели</t>
+  </si>
+  <si>
+    <t>тетрадь</t>
+  </si>
+  <si>
+    <t>обследование</t>
+  </si>
+  <si>
+    <t>блокнот</t>
+  </si>
+  <si>
+    <t>бланк</t>
+  </si>
+  <si>
+    <t>абонемент</t>
+  </si>
+  <si>
+    <t>билет</t>
+  </si>
+  <si>
+    <t>проект</t>
+  </si>
+  <si>
+    <t>предложение</t>
+  </si>
+  <si>
+    <t>проформа</t>
+  </si>
+  <si>
+    <t>дополнение</t>
+  </si>
+  <si>
+    <t>сертификат</t>
+  </si>
+  <si>
+    <t>полис</t>
+  </si>
+  <si>
+    <t>лицензия</t>
+  </si>
+  <si>
+    <t>коносамент</t>
+  </si>
+  <si>
+    <t>разнарядка</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,6 +1248,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1196,7 +1501,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1378,6 +1683,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5106,7 +5412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -5320,4 +5626,521 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A99">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>